--- a/Documentation/TitleVI.xlsx
+++ b/Documentation/TitleVI.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -6135,8 +6133,8 @@
     <dgm:cxn modelId="{CB03B5E8-8508-461B-AD21-9119CDD7B586}" type="presOf" srcId="{EC15948C-912C-49CB-8203-74F0AF9F5CC9}" destId="{9D51078B-D244-4EE7-9D03-A625F0671DC4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process1"/>
     <dgm:cxn modelId="{3C6C8A2F-EF9D-42FE-BD67-A86F41681CB7}" type="presOf" srcId="{7E0500FA-4776-4C4A-8E68-1945E3D002E1}" destId="{471C8930-F496-4134-B64F-DB8227E525D8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process1"/>
     <dgm:cxn modelId="{F4738F7E-9503-4EF0-8792-178A11CC196A}" type="presOf" srcId="{DDA5DA96-D827-466F-8085-24CB66D0B2D8}" destId="{5229E7C7-10D2-4DF5-9279-01F4E79C63F1}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/process1"/>
+    <dgm:cxn modelId="{67941121-54E8-4984-B3BF-9F18AEC43436}" type="presOf" srcId="{EC15948C-912C-49CB-8203-74F0AF9F5CC9}" destId="{01BE5BFE-C129-4013-A135-43E8E1F33D21}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process1"/>
     <dgm:cxn modelId="{42D7B639-FC39-4ADC-AB3A-808690FF1C49}" type="presOf" srcId="{D2550626-CB5F-4AD8-8668-CF71F2E02D61}" destId="{5229E7C7-10D2-4DF5-9279-01F4E79C63F1}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/process1"/>
-    <dgm:cxn modelId="{67941121-54E8-4984-B3BF-9F18AEC43436}" type="presOf" srcId="{EC15948C-912C-49CB-8203-74F0AF9F5CC9}" destId="{01BE5BFE-C129-4013-A135-43E8E1F33D21}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process1"/>
     <dgm:cxn modelId="{503FB354-343A-4335-8A48-7BC9BB8B27FB}" srcId="{02A312A3-5093-4D58-BDAD-8E96CF0E760B}" destId="{A4357953-043C-4C98-A024-3EDE2F2D24AC}" srcOrd="0" destOrd="0" parTransId="{B5110C40-A1A6-4502-9527-2C51B2A1684C}" sibTransId="{B90357AD-CE8C-4584-9666-C63CF35F3AED}"/>
     <dgm:cxn modelId="{838F266A-DA50-43CB-9367-858742F4F37A}" srcId="{02A312A3-5093-4D58-BDAD-8E96CF0E760B}" destId="{D2550626-CB5F-4AD8-8668-CF71F2E02D61}" srcOrd="1" destOrd="0" parTransId="{C0398495-6D2F-440F-9801-6C2C0DB6AC47}" sibTransId="{6379B9D0-AF13-4A36-8C7A-7631F7424B8F}"/>
     <dgm:cxn modelId="{6C4C03D1-DB6C-4CD1-BEE2-815F04DE1DE7}" type="presOf" srcId="{48289FD5-2489-46CD-8D68-24F61A803280}" destId="{E2A5BACE-C75D-47A2-A1FB-3B455B42D3B8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process1"/>
@@ -7419,72 +7417,72 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{5703A32A-F1B9-4E67-B4F8-328D226D4576}" type="presOf" srcId="{6DDCF5A1-9548-42F1-AC9F-3E59BA946C55}" destId="{D423D30E-AC76-41C1-8E39-F8121646597D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
     <dgm:cxn modelId="{852474FD-7008-49AA-B268-44B3ED7A4341}" srcId="{2B2ACAB3-B019-4E6E-A851-BD20B8F92459}" destId="{6DDCF5A1-9548-42F1-AC9F-3E59BA946C55}" srcOrd="0" destOrd="0" parTransId="{D27F04B7-8836-4304-929F-BD6A9C6FEA98}" sibTransId="{70B376A0-BE31-4DA4-97DA-20007DFDB385}"/>
-    <dgm:cxn modelId="{ADFFCC6F-929E-4AE3-BE91-94981CF2EF78}" type="presOf" srcId="{6DDCF5A1-9548-42F1-AC9F-3E59BA946C55}" destId="{D423D30E-AC76-41C1-8E39-F8121646597D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
     <dgm:cxn modelId="{85B86840-1091-47FA-A2CC-CE3C17BD4863}" srcId="{6DDCF5A1-9548-42F1-AC9F-3E59BA946C55}" destId="{F39F0160-7C1D-42D9-A9E3-E2B2F9507FFE}" srcOrd="3" destOrd="0" parTransId="{C247265C-2EE4-417B-A8E6-BA733F350FA4}" sibTransId="{815CC492-D7C6-4E99-9ACE-1AF5EA24B8F2}"/>
     <dgm:cxn modelId="{BB706CC5-F557-43A1-80ED-05E76DEB91A7}" srcId="{6DDCF5A1-9548-42F1-AC9F-3E59BA946C55}" destId="{AD7366AC-36B7-491A-A039-FE09967725A5}" srcOrd="1" destOrd="0" parTransId="{CE6ABCC5-EA9F-4C4B-8EC3-384501D6A7AD}" sibTransId="{382F182F-E4B6-47A7-B843-9F249792E64C}"/>
+    <dgm:cxn modelId="{3AE9F313-1E0F-4A28-B286-5B415B502DB7}" type="presOf" srcId="{2B2ACAB3-B019-4E6E-A851-BD20B8F92459}" destId="{BD0AD415-B38D-4BDB-8B44-F2A5D6AD93B4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{9E2E6F13-EDA2-40A0-BD64-9D3080913B38}" type="presOf" srcId="{F39F0160-7C1D-42D9-A9E3-E2B2F9507FFE}" destId="{4C807B02-F362-4D3D-AAE5-5B070DA9D1B7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
     <dgm:cxn modelId="{AECA1903-9145-4C85-A146-E8F2D59F6923}" srcId="{0DF370E9-A8A8-417B-AB2B-E806A1446483}" destId="{555FAD36-777F-496E-A41A-EC83BB2A23E3}" srcOrd="2" destOrd="0" parTransId="{A2FA20F7-FA14-4822-AA65-AEC1DEC9FA73}" sibTransId="{03AB15F9-E974-4316-AB9F-46819E8EF091}"/>
+    <dgm:cxn modelId="{ED366077-C603-4225-B690-8804B0890A24}" type="presOf" srcId="{0FA8C3C1-2F57-49C1-86E6-79E65CAAE31E}" destId="{A6EC4FE9-2AA7-46BD-A98C-C7CAB0A060C8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
     <dgm:cxn modelId="{572A657C-4901-4C05-8D3D-3981D01AF1B2}" srcId="{6DDCF5A1-9548-42F1-AC9F-3E59BA946C55}" destId="{159A260B-B55B-4184-A7C8-538BA271AFA8}" srcOrd="0" destOrd="0" parTransId="{58AC6223-AA6F-4DB9-A51C-3D8CCE299BFC}" sibTransId="{F53CE8D0-0A8F-4A15-9588-F5607FD54217}"/>
-    <dgm:cxn modelId="{BC5574BB-02E7-498F-8819-24746C4DD427}" type="presOf" srcId="{AD7366AC-36B7-491A-A039-FE09967725A5}" destId="{0EA5A31E-BA9A-43EF-9B90-08598A6ABBE2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{4F12AC3B-A54E-443B-975C-E867BF2485D8}" type="presOf" srcId="{555FAD36-777F-496E-A41A-EC83BB2A23E3}" destId="{C0F995FD-70AF-414D-ADA4-03D5837B86E6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
     <dgm:cxn modelId="{2065322A-EDD8-4DFD-B469-475209D8C400}" srcId="{0DF370E9-A8A8-417B-AB2B-E806A1446483}" destId="{0FA8C3C1-2F57-49C1-86E6-79E65CAAE31E}" srcOrd="1" destOrd="0" parTransId="{F49AD9D6-0B2E-49E1-8DAA-34FE12378ED1}" sibTransId="{1ED24225-79A5-4462-92BB-4642E6945C54}"/>
-    <dgm:cxn modelId="{53190F69-88A8-43EA-906A-3B2A16A22E9C}" type="presOf" srcId="{FF410508-4511-41D7-9BCA-D2F005A74A1C}" destId="{85D398E1-0D53-47B3-A3B2-AFB7235D6E32}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{C823058C-6D45-44F0-BE2E-AE97B43FD34B}" type="presOf" srcId="{0DF370E9-A8A8-417B-AB2B-E806A1446483}" destId="{574E0C2D-AE54-41AF-89E4-674D80FE4B4A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{337196A7-C907-4C08-B486-FE3A645D1CD9}" type="presOf" srcId="{0FA8C3C1-2F57-49C1-86E6-79E65CAAE31E}" destId="{A6EC4FE9-2AA7-46BD-A98C-C7CAB0A060C8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{034228E4-4D7E-4EA5-BA2A-DCB565054D55}" type="presOf" srcId="{F39F0160-7C1D-42D9-A9E3-E2B2F9507FFE}" destId="{4C807B02-F362-4D3D-AAE5-5B070DA9D1B7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
     <dgm:cxn modelId="{D2C6420E-DA09-44DA-8D36-3FCF7955B821}" srcId="{6DDCF5A1-9548-42F1-AC9F-3E59BA946C55}" destId="{0DF370E9-A8A8-417B-AB2B-E806A1446483}" srcOrd="2" destOrd="0" parTransId="{8628C69D-B8A3-4683-AB85-34A58834BEC4}" sibTransId="{06EF8FC1-DA51-482F-95DE-BEE03218B0EE}"/>
+    <dgm:cxn modelId="{D6CB5A69-1049-4CCD-9239-00FA16194A18}" type="presOf" srcId="{0DF370E9-A8A8-417B-AB2B-E806A1446483}" destId="{574E0C2D-AE54-41AF-89E4-674D80FE4B4A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{B9C10A5B-2E9E-47EE-A293-1940E2E6CFD7}" type="presOf" srcId="{FF410508-4511-41D7-9BCA-D2F005A74A1C}" destId="{85D398E1-0D53-47B3-A3B2-AFB7235D6E32}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
     <dgm:cxn modelId="{FEC114A0-A021-414D-BE04-9C68A4528ED4}" srcId="{0DF370E9-A8A8-417B-AB2B-E806A1446483}" destId="{FF410508-4511-41D7-9BCA-D2F005A74A1C}" srcOrd="0" destOrd="0" parTransId="{981CB421-E5B7-4EF0-84E7-ACD67E1909CE}" sibTransId="{A8A91457-40EB-4057-8A27-A62826A12AAC}"/>
-    <dgm:cxn modelId="{52B81A68-07A0-492C-A683-0D017EB27485}" type="presOf" srcId="{2B2ACAB3-B019-4E6E-A851-BD20B8F92459}" destId="{BD0AD415-B38D-4BDB-8B44-F2A5D6AD93B4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{B7786189-9CE3-40E6-8616-4A446F3D0EC1}" type="presOf" srcId="{159A260B-B55B-4184-A7C8-538BA271AFA8}" destId="{A5E8CEF3-7063-4F51-9D34-1157D43A484E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{BFE50A51-458E-49CC-9318-DFA0D26CE678}" type="presParOf" srcId="{BD0AD415-B38D-4BDB-8B44-F2A5D6AD93B4}" destId="{7A0ED3C7-B5E8-48FB-9C7D-F418019C9D1C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{60C44A20-5FA7-4824-B2CB-009A473F6CEB}" type="presParOf" srcId="{BD0AD415-B38D-4BDB-8B44-F2A5D6AD93B4}" destId="{FEFA0B33-86BC-4979-B1A1-D1757852D95D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{642A43E1-BBAD-4565-B4D5-29B6546D7E78}" type="presParOf" srcId="{FEFA0B33-86BC-4979-B1A1-D1757852D95D}" destId="{D423D30E-AC76-41C1-8E39-F8121646597D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{59B7D7B9-1C07-434A-9059-5C6ACE48006A}" type="presParOf" srcId="{FEFA0B33-86BC-4979-B1A1-D1757852D95D}" destId="{9024CC0E-8BD9-4A35-9959-E87A4B28AC93}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{99FA4DF7-D915-414B-AE46-3CA619879333}" type="presParOf" srcId="{9024CC0E-8BD9-4A35-9959-E87A4B28AC93}" destId="{964F5278-894F-45EB-A1B7-529B3EA40EC2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{174BDB0A-87AB-423A-A301-4D6C1CB1CC30}" type="presParOf" srcId="{9024CC0E-8BD9-4A35-9959-E87A4B28AC93}" destId="{A964CF2B-E4EE-4646-B475-B7B8C10ADAF6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{880417CF-3FA5-43AB-9771-E4279294CBB4}" type="presParOf" srcId="{A964CF2B-E4EE-4646-B475-B7B8C10ADAF6}" destId="{486F85FE-D7EE-4676-9AD2-08F05B75CC60}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{75669BB1-4612-40BB-A6D9-7314201440A4}" type="presParOf" srcId="{A964CF2B-E4EE-4646-B475-B7B8C10ADAF6}" destId="{A5E8CEF3-7063-4F51-9D34-1157D43A484E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{D3086B78-0F0C-4DCA-9C47-CE06DD00C0AA}" type="presParOf" srcId="{A964CF2B-E4EE-4646-B475-B7B8C10ADAF6}" destId="{BCE8CA18-C069-41B3-9339-6B4AF71DDFF1}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{0C09430D-83B3-4DD5-823B-C8437C67BB7E}" type="presParOf" srcId="{9024CC0E-8BD9-4A35-9959-E87A4B28AC93}" destId="{22EAA776-94B0-4B90-A310-C587931019A8}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{C81B2891-6A23-4C5E-B18C-6A545C117933}" type="presParOf" srcId="{9024CC0E-8BD9-4A35-9959-E87A4B28AC93}" destId="{E290CAAB-2BF5-48A4-A3AA-7C0E37FF1608}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{A4380D57-0FB1-42BD-9269-FB235BEF64C6}" type="presParOf" srcId="{9024CC0E-8BD9-4A35-9959-E87A4B28AC93}" destId="{D878563B-5ECF-4914-B4A0-3B26D463E91F}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{BF6CAC26-F7CF-4AF3-80F7-D866FD8BC54C}" type="presParOf" srcId="{D878563B-5ECF-4914-B4A0-3B26D463E91F}" destId="{2D5646BC-52EE-4F0D-B98A-C28F5C3993DF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{074981AC-1D6F-42A3-A75B-48B94EE80353}" type="presParOf" srcId="{D878563B-5ECF-4914-B4A0-3B26D463E91F}" destId="{0EA5A31E-BA9A-43EF-9B90-08598A6ABBE2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{EFAFB77A-703E-4E0D-B4F9-AA28657D450D}" type="presParOf" srcId="{D878563B-5ECF-4914-B4A0-3B26D463E91F}" destId="{2D7B264E-F1E9-43DE-8340-B69E394B8E1B}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{55298B0F-C9CC-40F3-A4F9-E148F294AA51}" type="presParOf" srcId="{9024CC0E-8BD9-4A35-9959-E87A4B28AC93}" destId="{1907B42C-F202-4FAA-A6FD-0335C194AF2F}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{86CE4677-2AA2-4165-8717-FE8C119CD94D}" type="presParOf" srcId="{9024CC0E-8BD9-4A35-9959-E87A4B28AC93}" destId="{B5DEA199-ED59-450C-AACA-B373A66446B3}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{D260986F-8213-4C64-A1FB-0908BC09B5B3}" type="presParOf" srcId="{9024CC0E-8BD9-4A35-9959-E87A4B28AC93}" destId="{32E05DCF-DDD7-4819-A8DD-A8BEC8F1BEA5}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{310A49C0-ACCD-4514-99EA-48AA919C880E}" type="presParOf" srcId="{32E05DCF-DDD7-4819-A8DD-A8BEC8F1BEA5}" destId="{BCDD4A68-ECF5-4A3E-9D14-4F372B1C105B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{178BF97C-CD6C-4705-A46C-20CEEED3F96B}" type="presParOf" srcId="{32E05DCF-DDD7-4819-A8DD-A8BEC8F1BEA5}" destId="{574E0C2D-AE54-41AF-89E4-674D80FE4B4A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{AC288FE5-FB6C-4051-B51B-3FEC35344A24}" type="presParOf" srcId="{32E05DCF-DDD7-4819-A8DD-A8BEC8F1BEA5}" destId="{7EAED89E-670E-4061-99D2-A08D09C2A7D9}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{EA42AB90-05BC-426D-A0BE-25BF9D2B962E}" type="presParOf" srcId="{7EAED89E-670E-4061-99D2-A08D09C2A7D9}" destId="{0EC3A503-C718-4C5E-9798-C779ECF4186F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{DD159E73-BB58-4943-87E6-4ADD41B0FEE4}" type="presParOf" srcId="{0EC3A503-C718-4C5E-9798-C779ECF4186F}" destId="{2CB44F63-AD40-4762-BBE0-CA7409F961A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{5CCC0D40-9680-453B-9A4A-E64FA873B142}" type="presParOf" srcId="{0EC3A503-C718-4C5E-9798-C779ECF4186F}" destId="{85D398E1-0D53-47B3-A3B2-AFB7235D6E32}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{6A325EC7-72F2-4006-9C7B-7D0121687173}" type="presParOf" srcId="{0EC3A503-C718-4C5E-9798-C779ECF4186F}" destId="{6DCA794B-EEE5-4532-82DD-EE4AEB38130C}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{D012BE43-6B5D-4189-8469-71EC8D43F58E}" type="presParOf" srcId="{7EAED89E-670E-4061-99D2-A08D09C2A7D9}" destId="{795476BC-CBB3-4796-8820-4AAE1503F1BA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{D33FB2F5-4FE6-4FE0-9402-E3811159C0A2}" type="presParOf" srcId="{7EAED89E-670E-4061-99D2-A08D09C2A7D9}" destId="{0E5C1004-CB92-41BC-9806-F38F5FFEEAEC}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{F2D6B5B0-96B7-47F6-8F07-6548364EFE5D}" type="presParOf" srcId="{0E5C1004-CB92-41BC-9806-F38F5FFEEAEC}" destId="{E8021785-9D7B-484C-8A83-BD023AC1F42C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{0980F8D2-ECF0-4557-BBA3-E6D6F7A49437}" type="presParOf" srcId="{0E5C1004-CB92-41BC-9806-F38F5FFEEAEC}" destId="{A6EC4FE9-2AA7-46BD-A98C-C7CAB0A060C8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{1177187A-E45A-4347-8A37-A082D4BD8C7F}" type="presParOf" srcId="{0E5C1004-CB92-41BC-9806-F38F5FFEEAEC}" destId="{2C5670D5-C1D5-4477-B913-DA2C1C826488}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{A5F57B08-FD7C-4BCE-AC0E-30F5F38A8D2C}" type="presParOf" srcId="{7EAED89E-670E-4061-99D2-A08D09C2A7D9}" destId="{7DF687F2-1BB4-4530-BD94-4EF6A8F3A6E3}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{B0CB7CDB-79C6-4105-BBD3-9290ED87B8D2}" type="presParOf" srcId="{7EAED89E-670E-4061-99D2-A08D09C2A7D9}" destId="{AE64D997-8C9E-4F7A-8AC1-42E0644D4B15}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{63C4C597-4395-424F-ACF2-F09E1E9B3866}" type="presParOf" srcId="{AE64D997-8C9E-4F7A-8AC1-42E0644D4B15}" destId="{EE1C0FCE-EEB1-4F9E-8D37-F18526A89541}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{0BE93D5C-BEE0-4DD1-B946-844A5E49CF4A}" type="presParOf" srcId="{AE64D997-8C9E-4F7A-8AC1-42E0644D4B15}" destId="{C0F995FD-70AF-414D-ADA4-03D5837B86E6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{94DD8BC5-6C2D-4BEA-A18F-71848DB29272}" type="presParOf" srcId="{AE64D997-8C9E-4F7A-8AC1-42E0644D4B15}" destId="{21350B90-4B22-47B6-AFF6-5DA49A64008A}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{6FCC095E-0A29-42AB-BEA5-9F07E954FBA9}" type="presParOf" srcId="{9024CC0E-8BD9-4A35-9959-E87A4B28AC93}" destId="{22CF42D0-8A45-4AC8-BFCC-0A794DCCFF52}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{E61B1AD1-7DF2-4A90-AFEC-E1D377B0D12F}" type="presParOf" srcId="{9024CC0E-8BD9-4A35-9959-E87A4B28AC93}" destId="{37AF57E5-E752-47F3-9AA7-C2B1171BEA3E}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{012994BE-4953-4B35-A456-9D7E22907867}" type="presParOf" srcId="{9024CC0E-8BD9-4A35-9959-E87A4B28AC93}" destId="{E468626E-790F-4C6C-80AD-6AE8EBB3E0A1}" srcOrd="10" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{4F71B63D-4E9C-42F7-ACCD-4D3173C2A5DD}" type="presParOf" srcId="{E468626E-790F-4C6C-80AD-6AE8EBB3E0A1}" destId="{40B91201-3144-467A-9BF9-D30F5CEE18B5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{3F8961A6-A2D0-4CF4-B323-85BB924AEDB1}" type="presParOf" srcId="{E468626E-790F-4C6C-80AD-6AE8EBB3E0A1}" destId="{4C807B02-F362-4D3D-AAE5-5B070DA9D1B7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{C1D6A2B4-6315-4999-826E-09E607BA8D6E}" type="presParOf" srcId="{E468626E-790F-4C6C-80AD-6AE8EBB3E0A1}" destId="{99D0D454-BF56-46BC-BB45-0B43DFCCE030}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{8BA79F88-B974-4661-A5A5-318DCE715918}" type="presParOf" srcId="{9024CC0E-8BD9-4A35-9959-E87A4B28AC93}" destId="{2B089ABF-12B8-449A-A136-B3BAF9BFF288}" srcOrd="11" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
-    <dgm:cxn modelId="{90D3F24E-18E1-47AE-A6E7-CEA394B52C66}" type="presParOf" srcId="{9024CC0E-8BD9-4A35-9959-E87A4B28AC93}" destId="{3D459BC8-D325-42C5-89B3-4489EE2CBCC0}" srcOrd="12" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{8B277B32-55B9-446F-83B2-CC6A72A8CF10}" type="presOf" srcId="{159A260B-B55B-4184-A7C8-538BA271AFA8}" destId="{A5E8CEF3-7063-4F51-9D34-1157D43A484E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{FDBFF775-57FD-4AAD-8A04-C712712456BF}" type="presOf" srcId="{555FAD36-777F-496E-A41A-EC83BB2A23E3}" destId="{C0F995FD-70AF-414D-ADA4-03D5837B86E6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{FD35A317-2337-498A-A81A-9F3F5344EF38}" type="presOf" srcId="{AD7366AC-36B7-491A-A039-FE09967725A5}" destId="{0EA5A31E-BA9A-43EF-9B90-08598A6ABBE2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{AE985633-34B7-4E2E-99D8-191F939B957E}" type="presParOf" srcId="{BD0AD415-B38D-4BDB-8B44-F2A5D6AD93B4}" destId="{7A0ED3C7-B5E8-48FB-9C7D-F418019C9D1C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{49F1DA8F-72CF-4B4B-A083-1F903052258E}" type="presParOf" srcId="{BD0AD415-B38D-4BDB-8B44-F2A5D6AD93B4}" destId="{FEFA0B33-86BC-4979-B1A1-D1757852D95D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{453FB85B-01EF-42E4-98F8-076D3C4377FB}" type="presParOf" srcId="{FEFA0B33-86BC-4979-B1A1-D1757852D95D}" destId="{D423D30E-AC76-41C1-8E39-F8121646597D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{5EE70432-D065-493F-B715-1125C233AB13}" type="presParOf" srcId="{FEFA0B33-86BC-4979-B1A1-D1757852D95D}" destId="{9024CC0E-8BD9-4A35-9959-E87A4B28AC93}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{F89D96B0-3FFD-4A12-BF63-651C5187ACF0}" type="presParOf" srcId="{9024CC0E-8BD9-4A35-9959-E87A4B28AC93}" destId="{964F5278-894F-45EB-A1B7-529B3EA40EC2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{D393B179-8472-4043-9B43-3803A81E3ABD}" type="presParOf" srcId="{9024CC0E-8BD9-4A35-9959-E87A4B28AC93}" destId="{A964CF2B-E4EE-4646-B475-B7B8C10ADAF6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{74C69B1B-7D14-43F4-BDF1-854AE2353DA1}" type="presParOf" srcId="{A964CF2B-E4EE-4646-B475-B7B8C10ADAF6}" destId="{486F85FE-D7EE-4676-9AD2-08F05B75CC60}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{A8FF44B7-D60D-4221-AC4E-29102C7164EB}" type="presParOf" srcId="{A964CF2B-E4EE-4646-B475-B7B8C10ADAF6}" destId="{A5E8CEF3-7063-4F51-9D34-1157D43A484E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{A220A77F-7650-4C79-9A9B-14B976AABD57}" type="presParOf" srcId="{A964CF2B-E4EE-4646-B475-B7B8C10ADAF6}" destId="{BCE8CA18-C069-41B3-9339-6B4AF71DDFF1}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{3C18EDDE-872A-4167-897A-2FD8751A07AF}" type="presParOf" srcId="{9024CC0E-8BD9-4A35-9959-E87A4B28AC93}" destId="{22EAA776-94B0-4B90-A310-C587931019A8}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{6971DBC8-965C-4804-A693-45F7E8189BAA}" type="presParOf" srcId="{9024CC0E-8BD9-4A35-9959-E87A4B28AC93}" destId="{E290CAAB-2BF5-48A4-A3AA-7C0E37FF1608}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{953D1C98-13B2-4847-AC93-E4AE35555FDD}" type="presParOf" srcId="{9024CC0E-8BD9-4A35-9959-E87A4B28AC93}" destId="{D878563B-5ECF-4914-B4A0-3B26D463E91F}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{CA6855C1-7C8F-4B65-8D83-2E15EF3E87AF}" type="presParOf" srcId="{D878563B-5ECF-4914-B4A0-3B26D463E91F}" destId="{2D5646BC-52EE-4F0D-B98A-C28F5C3993DF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{EB249A29-EE5F-40BE-81CF-2BA15BDE67AE}" type="presParOf" srcId="{D878563B-5ECF-4914-B4A0-3B26D463E91F}" destId="{0EA5A31E-BA9A-43EF-9B90-08598A6ABBE2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{2D010D74-829A-4786-81A8-B143FA4CA0B3}" type="presParOf" srcId="{D878563B-5ECF-4914-B4A0-3B26D463E91F}" destId="{2D7B264E-F1E9-43DE-8340-B69E394B8E1B}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{2574587C-75BF-48BB-9CA5-3988C467FB64}" type="presParOf" srcId="{9024CC0E-8BD9-4A35-9959-E87A4B28AC93}" destId="{1907B42C-F202-4FAA-A6FD-0335C194AF2F}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{4F446EBA-FE1A-487E-A406-21720704FA6E}" type="presParOf" srcId="{9024CC0E-8BD9-4A35-9959-E87A4B28AC93}" destId="{B5DEA199-ED59-450C-AACA-B373A66446B3}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{FBBBE452-D4AB-464C-99B1-3866D76799C5}" type="presParOf" srcId="{9024CC0E-8BD9-4A35-9959-E87A4B28AC93}" destId="{32E05DCF-DDD7-4819-A8DD-A8BEC8F1BEA5}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{C65542A0-2CB5-4CA5-96A2-562A62F62B8A}" type="presParOf" srcId="{32E05DCF-DDD7-4819-A8DD-A8BEC8F1BEA5}" destId="{BCDD4A68-ECF5-4A3E-9D14-4F372B1C105B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{0B0BBD2B-5AB4-4B9D-8E7A-AA2C39503A10}" type="presParOf" srcId="{32E05DCF-DDD7-4819-A8DD-A8BEC8F1BEA5}" destId="{574E0C2D-AE54-41AF-89E4-674D80FE4B4A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{2F28111E-287C-482E-9692-E7BE7AC86AA4}" type="presParOf" srcId="{32E05DCF-DDD7-4819-A8DD-A8BEC8F1BEA5}" destId="{7EAED89E-670E-4061-99D2-A08D09C2A7D9}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{29815E6F-58C7-45FA-BD5E-3A8B2840CF8A}" type="presParOf" srcId="{7EAED89E-670E-4061-99D2-A08D09C2A7D9}" destId="{0EC3A503-C718-4C5E-9798-C779ECF4186F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{84E98600-7F1D-4012-90A2-C4ABDB1E1174}" type="presParOf" srcId="{0EC3A503-C718-4C5E-9798-C779ECF4186F}" destId="{2CB44F63-AD40-4762-BBE0-CA7409F961A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{9647A1A0-2638-4571-B906-A1794E2D4258}" type="presParOf" srcId="{0EC3A503-C718-4C5E-9798-C779ECF4186F}" destId="{85D398E1-0D53-47B3-A3B2-AFB7235D6E32}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{1C83E182-679B-4D18-BA8F-ADCDC5BA8759}" type="presParOf" srcId="{0EC3A503-C718-4C5E-9798-C779ECF4186F}" destId="{6DCA794B-EEE5-4532-82DD-EE4AEB38130C}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{D3B5DF45-A5D2-45E4-B5B6-D9A2C2F797BF}" type="presParOf" srcId="{7EAED89E-670E-4061-99D2-A08D09C2A7D9}" destId="{795476BC-CBB3-4796-8820-4AAE1503F1BA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{4117B486-D078-406A-B131-ADA8FD273FD5}" type="presParOf" srcId="{7EAED89E-670E-4061-99D2-A08D09C2A7D9}" destId="{0E5C1004-CB92-41BC-9806-F38F5FFEEAEC}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{9A6B4BA1-9A54-4B24-AA43-1F8F1EF20A84}" type="presParOf" srcId="{0E5C1004-CB92-41BC-9806-F38F5FFEEAEC}" destId="{E8021785-9D7B-484C-8A83-BD023AC1F42C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{8733A5A0-F16B-4A2B-8C04-70E0A9E19E7A}" type="presParOf" srcId="{0E5C1004-CB92-41BC-9806-F38F5FFEEAEC}" destId="{A6EC4FE9-2AA7-46BD-A98C-C7CAB0A060C8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{C533C62A-519C-4702-BDA0-5B2206FF7AB2}" type="presParOf" srcId="{0E5C1004-CB92-41BC-9806-F38F5FFEEAEC}" destId="{2C5670D5-C1D5-4477-B913-DA2C1C826488}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{24B6D770-26AE-4B37-BA4D-0ABF315E3ACD}" type="presParOf" srcId="{7EAED89E-670E-4061-99D2-A08D09C2A7D9}" destId="{7DF687F2-1BB4-4530-BD94-4EF6A8F3A6E3}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{2091954D-FCCC-486F-BD8A-A4924D0481F7}" type="presParOf" srcId="{7EAED89E-670E-4061-99D2-A08D09C2A7D9}" destId="{AE64D997-8C9E-4F7A-8AC1-42E0644D4B15}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{BAC5F06E-A725-4DEF-B1DD-CD90EAB42346}" type="presParOf" srcId="{AE64D997-8C9E-4F7A-8AC1-42E0644D4B15}" destId="{EE1C0FCE-EEB1-4F9E-8D37-F18526A89541}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{DA0FE98D-2082-423A-93A0-DF38D7518930}" type="presParOf" srcId="{AE64D997-8C9E-4F7A-8AC1-42E0644D4B15}" destId="{C0F995FD-70AF-414D-ADA4-03D5837B86E6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{1EFBCE78-3A03-40F4-9A76-33E34968E462}" type="presParOf" srcId="{AE64D997-8C9E-4F7A-8AC1-42E0644D4B15}" destId="{21350B90-4B22-47B6-AFF6-5DA49A64008A}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{9D39DB03-2FFB-46D9-80B5-287FD1C21FEC}" type="presParOf" srcId="{9024CC0E-8BD9-4A35-9959-E87A4B28AC93}" destId="{22CF42D0-8A45-4AC8-BFCC-0A794DCCFF52}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{3F6267ED-18B6-4D41-BC23-32E5748197D3}" type="presParOf" srcId="{9024CC0E-8BD9-4A35-9959-E87A4B28AC93}" destId="{37AF57E5-E752-47F3-9AA7-C2B1171BEA3E}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{32BED5E7-5559-4EC9-8A71-EF839DADD8D2}" type="presParOf" srcId="{9024CC0E-8BD9-4A35-9959-E87A4B28AC93}" destId="{E468626E-790F-4C6C-80AD-6AE8EBB3E0A1}" srcOrd="10" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{3342E4B8-6EF6-4C8A-8029-7E264DEC48D1}" type="presParOf" srcId="{E468626E-790F-4C6C-80AD-6AE8EBB3E0A1}" destId="{40B91201-3144-467A-9BF9-D30F5CEE18B5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{DA317793-D0C5-4B51-84FD-45E4ACA6ED74}" type="presParOf" srcId="{E468626E-790F-4C6C-80AD-6AE8EBB3E0A1}" destId="{4C807B02-F362-4D3D-AAE5-5B070DA9D1B7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{E5083212-23A2-4BE0-A8C8-9AAC4D5C7E9B}" type="presParOf" srcId="{E468626E-790F-4C6C-80AD-6AE8EBB3E0A1}" destId="{99D0D454-BF56-46BC-BB45-0B43DFCCE030}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{48D63116-FEF0-4FBB-80E5-9AB087A4D67B}" type="presParOf" srcId="{9024CC0E-8BD9-4A35-9959-E87A4B28AC93}" destId="{2B089ABF-12B8-449A-A136-B3BAF9BFF288}" srcOrd="11" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
+    <dgm:cxn modelId="{B3E54D1E-2E7B-4E55-B77C-7AA538E010AD}" type="presParOf" srcId="{9024CC0E-8BD9-4A35-9959-E87A4B28AC93}" destId="{3D459BC8-D325-42C5-89B3-4489EE2CBCC0}" srcOrd="12" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/LinedList"/>
   </dgm:cxnLst>
   <dgm:bg/>
   <dgm:whole/>
   <dgm:extLst>
     <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
-      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId30" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
     </a:ext>
   </dgm:extLst>
 </dgm:dataModel>
@@ -10241,6 +10239,815 @@
       <dsp:cNvGrpSpPr/>
     </dsp:nvGrpSpPr>
     <dsp:grpSpPr/>
+    <dsp:sp modelId="{7A0ED3C7-B5E8-48FB-9C7D-F418019C9D1C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4133849" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{D423D30E-AC76-41C1-8E39-F8121646597D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="826770" cy="2733675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="57150" tIns="57150" rIns="57150" bIns="57150" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="l" defTabSz="666750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1500" kern="1200"/>
+            <a:t>Graphics Layers</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="826770" cy="2733675"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{A5E8CEF3-7063-4F51-9D34-1157D43A484E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="888777" y="32135"/>
+          <a:ext cx="1591532" cy="642707"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="68580" tIns="68580" rIns="68580" bIns="68580" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="l" defTabSz="800100">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" kern="1200"/>
+            <a:t>Service Area</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="888777" y="32135"/>
+        <a:ext cx="1591532" cy="642707"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{22EAA776-94B0-4B90-A310-C587931019A8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="826770" y="674842"/>
+          <a:ext cx="3307080" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:tint val="50000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{0EA5A31E-BA9A-43EF-9B90-08598A6ABBE2}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="888777" y="706978"/>
+          <a:ext cx="1591532" cy="642707"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="68580" tIns="68580" rIns="68580" bIns="68580" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="l" defTabSz="800100">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" kern="1200"/>
+            <a:t>Selection</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="888777" y="706978"/>
+        <a:ext cx="1591532" cy="642707"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{1907B42C-F202-4FAA-A6FD-0335C194AF2F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="826770" y="1349685"/>
+          <a:ext cx="3307080" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:tint val="50000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{574E0C2D-AE54-41AF-89E4-674D80FE4B4A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="888777" y="1381820"/>
+          <a:ext cx="1591532" cy="642707"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="68580" tIns="68580" rIns="68580" bIns="68580" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="l" defTabSz="800100">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" kern="1200"/>
+            <a:t>User drawn graphics</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="888777" y="1381820"/>
+        <a:ext cx="1591532" cy="642707"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{85D398E1-0D53-47B3-A3B2-AFB7235D6E32}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2542317" y="1381820"/>
+          <a:ext cx="1591532" cy="214026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="l" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:t>Points</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2542317" y="1381820"/>
+        <a:ext cx="1591532" cy="214026"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{795476BC-CBB3-4796-8820-4AAE1503F1BA}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2480310" y="1595847"/>
+          <a:ext cx="1591532" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:tint val="50000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{A6EC4FE9-2AA7-46BD-A98C-C7CAB0A060C8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2542317" y="1595847"/>
+          <a:ext cx="1591532" cy="214026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="l" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:t>Polylines</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2542317" y="1595847"/>
+        <a:ext cx="1591532" cy="214026"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{7DF687F2-1BB4-4530-BD94-4EF6A8F3A6E3}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2480310" y="1809873"/>
+          <a:ext cx="1591532" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:tint val="50000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{C0F995FD-70AF-414D-ADA4-03D5837B86E6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2542317" y="1809873"/>
+          <a:ext cx="1591532" cy="214026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="l" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:t>Polygons</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2542317" y="1809873"/>
+        <a:ext cx="1591532" cy="214026"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{22CF42D0-8A45-4AC8-BFCC-0A794DCCFF52}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="826770" y="2024527"/>
+          <a:ext cx="3307080" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:tint val="50000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{4C807B02-F362-4D3D-AAE5-5B070DA9D1B7}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="888777" y="2056663"/>
+          <a:ext cx="1591532" cy="642707"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="68580" tIns="68580" rIns="68580" bIns="68580" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="l" defTabSz="800100">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" kern="1200"/>
+            <a:t>User added data layers</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="888777" y="2056663"/>
+        <a:ext cx="1591532" cy="642707"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{2B089ABF-12B8-449A-A136-B3BAF9BFF288}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="826770" y="2699370"/>
+          <a:ext cx="3307080" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:tint val="50000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
   </dsp:spTree>
 </dsp:drawing>
 </file>
@@ -17917,27 +18724,22 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvPr id="12" name="Diagram 11"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17946,7 +18748,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
-          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId26" r:lo="rId27" r:qs="rId28" r:cs="rId29"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18245,7 +19047,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18254,31 +19056,4 @@
   <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>